--- a/saida/Planilha.xlsx
+++ b/saida/Planilha.xlsx
@@ -4,11 +4,12 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Dados" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Gráfico" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Dados" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Gráfico" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -198,7 +199,7 @@
           <spPr>
             <a:ln w="0">
               <a:solidFill>
-                <a:srgbClr val="a61508"/>
+                <a:srgbClr val="d115a8"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -228,7 +229,7 @@
           <spPr>
             <a:ln w="0">
               <a:solidFill>
-                <a:srgbClr val="12a154"/>
+                <a:srgbClr val="ff1a05"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
             </a:ln>
@@ -658,6 +659,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D907"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15189,7 +15208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
